--- a/runtime/device.xlsx
+++ b/runtime/device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>资产编号</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>设备状态</t>
+  </si>
+  <si>
+    <t>请参照代码表</t>
+  </si>
+  <si>
+    <t>20XX-XX-XX</t>
   </si>
 </sst>
 </file>
@@ -63,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -670,8 +676,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,59 +1026,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="14.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/runtime/device.xlsx
+++ b/runtime/device.xlsx
@@ -8,15 +8,63 @@
   </bookViews>
   <sheets>
     <sheet name="设备基本信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="设备类型代码表" sheetId="2" r:id="rId2"/>
+    <sheet name="设备状态代码表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lzhm</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>红色字体为必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">红色字体为必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">红色字体为必填项
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>资产编号</t>
   </si>
@@ -57,10 +105,82 @@
     <t>设备状态</t>
   </si>
   <si>
-    <t>请参照代码表</t>
+    <t>请参照设备类型代码表</t>
+  </si>
+  <si>
+    <t>填写设备唯一标识码</t>
   </si>
   <si>
     <t>20XX-XX-XX</t>
+  </si>
+  <si>
+    <t>请参照设备状态代码表</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>dyj</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>jsj1</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>wl</t>
+  </si>
+  <si>
+    <t>交换机</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>个人在用</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>科室公用</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>待分配（存信息中心、可分配）</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>已借用（属信息中心、其他科室借用）</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>不可用（已坏未报废）</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>已报废（收回至信息中心）</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>已调离（不在市局管理范围）</t>
   </si>
 </sst>
 </file>
@@ -69,14 +189,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,36 +362,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,42 +410,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,37 +458,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,49 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,141 +673,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,30 +1158,30 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3148148148148" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="9" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.66666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1060,7 +1190,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1084,7 +1214,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1092,34 +1222,71 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1129,14 +1296,82 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="38.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
